--- a/doc/座席录音资源接口说明文档.xlsx
+++ b/doc/座席录音资源接口说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>REST接口说明</t>
   </si>
@@ -159,6 +159,118 @@
   </si>
   <si>
     <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐席ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主叫号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叫号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台可能显示字段：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型（IN，Out）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐席工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +332,30 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +488,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,6 +523,87 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="NC)P[BLV3E3F0LDHEH)_)1B.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="4467225"/>
+          <a:ext cx="12915900" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="11.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="8410575"/>
+          <a:ext cx="6581775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -711,7 +955,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
@@ -821,7 +1065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -831,7 +1075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -841,7 +1085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -851,13 +1095,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
@@ -865,53 +1109,226 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:6">
+      <c r="A23" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="24" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B24:F31"/>
+    <mergeCell ref="B47:D50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/座席录音资源接口说明文档.xlsx
+++ b/doc/座席录音资源接口说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>REST接口说明</t>
   </si>
@@ -40,9 +40,6 @@
     <t>返回值</t>
   </si>
   <si>
-    <t>Json</t>
-  </si>
-  <si>
     <t>具体描述</t>
   </si>
   <si>
@@ -62,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取一条录音的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前是否有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_RECORDER.AGENTID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,175 +87,342 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>录音文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音文件物理路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.FILEPATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.CALLTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叫号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.TELNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.CALLID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.ENDTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐席ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主叫号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叫号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台可能显示字段：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型（IN，Out）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐席工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.HOSTNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.CHANNELNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.TELDNIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.CHANNELDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRQ_SCORE.TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取符合要求的录音的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T_RECORDER.FILENAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>录音文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录音文件物理路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.FILEPATH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.CALLTYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被叫号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.TELNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.TELDNIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.CALLID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.ENDTIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录音文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通道号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐席ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主叫号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被叫号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台可能显示字段：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型（IN，Out）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐席工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主叫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被叫</t>
+    <t>hostName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channelNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spendTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agentID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channelDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telDNIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.4.48.29</t>
+  </si>
+  <si>
+    <t>10.4.48.29_20121105121534730_22_3203_37006.wav</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2012-11-05 12:15:34.000</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>37006</t>
+  </si>
+  <si>
+    <t>E:\RaRecSound\2012.11.05\</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>3203</t>
+  </si>
+  <si>
+    <t>13916794045</t>
+  </si>
+  <si>
+    <t>6999</t>
+  </si>
+  <si>
+    <t>2012-11-05 12:19:42.000</t>
+  </si>
+  <si>
+    <t>35.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">录音 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRecordeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?filename=xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?startdate=xxx&amp;enddate=xxx&amp;calltype=xxx&amp;agentid=xxx&amp;telno=xxx&amp;available=xxx&amp;totalmin=xxx&amp;totalmax=xxx&amp;channeldn=xxx&amp;teldnis=xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hostname/irecorderservice/irecordelist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,14 +474,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -440,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,9 +604,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -480,6 +621,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -489,32 +657,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,13 +681,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -555,7 +705,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="4467225"/>
+          <a:off x="2343150" y="4638675"/>
           <a:ext cx="12915900" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -569,13 +719,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -891,18 +1041,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="30.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="22.5">
@@ -924,407 +1074,528 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D18" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="21" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="22" t="s">
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="24" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="24" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B24:F31"/>
-    <mergeCell ref="B47:D50"/>
+    <mergeCell ref="B53:D56"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/座席录音资源接口说明文档.xlsx
+++ b/doc/座席录音资源接口说明文档.xlsx
@@ -410,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iRecordeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?filename=xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,7 +418,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://hostname/irecorderservice/irecordelist</t>
+    <t>http://hostname/irecorderservice/irecorderlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRecorderList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +502,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -579,12 +586,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,9 +677,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1044,7 +1059,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1077,7 +1092,7 @@
         <v>103</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -1099,8 +1114,8 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>107</v>
+      <c r="B5" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -1110,14 +1125,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
@@ -1598,8 +1613,11 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/doc/座席录音资源接口说明文档.xlsx
+++ b/doc/座席录音资源接口说明文档.xlsx
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,13 +502,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -586,16 +579,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,13 +666,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1059,7 +1044,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1114,7 +1099,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="19"/>
@@ -1613,11 +1598,8 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/座席录音资源接口说明文档.xlsx
+++ b/doc/座席录音资源接口说明文档.xlsx
@@ -410,19 +410,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://hostname/irecorderservice/irecorderlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRecorderList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>?filename=xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?startdate=xxx&amp;enddate=xxx&amp;calltype=xxx&amp;agentid=xxx&amp;telno=xxx&amp;available=xxx&amp;totalmin=xxx&amp;totalmax=xxx&amp;channeldn=xxx&amp;teldnis=xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hostname/irecorderservice/irecorderlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iRecorderList</t>
+    <t>?startdate=xxx&amp;enddate=xxx&amp;calltype=xxx&amp;agentid=xxx&amp;telno=xxx&amp;available=xxx&amp;totalmin=xxx&amp;totalmax=xxx&amp;channeldn=xxx&amp;teldnis=xxx&amp;pageno=xxx&amp;pagesize=xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +500,21 @@
       <color theme="8" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -584,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +680,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +709,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1044,7 +1068,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1052,7 +1076,7 @@
     <col min="1" max="1" width="30.75" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="8" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="91.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="22.5">
@@ -1077,7 +1101,7 @@
         <v>103</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -1100,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -1110,17 +1134,17 @@
         <v>6</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">

--- a/doc/座席录音资源接口说明文档.xlsx
+++ b/doc/座席录音资源接口说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>REST接口说明</t>
   </si>
@@ -139,39 +139,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录音文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主机名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_RECORDER.HOSTNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.CHANNELNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>通道号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐席ID</t>
+    <t>T_RECORDER.TELDNIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.CHANNELDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRQ_SCORE.TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取符合要求的录音的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_RECORDER.FILENAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,130 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被叫号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台可能显示字段：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型（IN，Out）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐席工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主叫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被叫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.HOSTNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.CHANNELNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通道号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.TELDNIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.CHANNELDN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JsonList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRQ_SCORE.TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取符合要求的录音的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_RECORDER.FILENAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主叫号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hostName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,6 +311,19 @@
   </si>
   <si>
     <t>?startdate=xxx&amp;enddate=xxx&amp;calltype=xxx&amp;agentid=xxx&amp;telno=xxx&amp;available=xxx&amp;totalmin=xxx&amp;totalmax=xxx&amp;channeldn=xxx&amp;teldnis=xxx&amp;pageno=xxx&amp;pagesize=xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'available': 1, 'spendTime': 8, 'filePath': 'E:\\RaRecSound\\2012.10.24\\', 'callID': '8763', 'channelDN': '3184', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121024145206943_3_3184_37001.wav', 'startTime': datetime.datetime(2012, 10, 24, 14, 52, 6), 'telNO': '3184', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 24, 14, 52, 15), 'channelNO': 3, 'telDNIS': '015075461290', 'total': None, 'agentID': '37001'}, {'available': 1, 'spendTime': 38, 'filePath': 'E:\\RaRecSound\\2012.10.24\\', 'callID': '11497', 'channelDN': '3185', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121024162419303_4_3185_37001.wav', 'startTime': datetime.datetime(2012, 10, 24, 16, 24, 19), 'telNO': '3185', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 24, 16, 24, 58), 'channelNO': 4, 'telDNIS': '13816395399', 'total': None, 'agentID': '37001'}, {'available': 1, 'spendTime': 30, 'filePath': 'E:\\RaRecSound\\2012.10.24\\', 'callID': '12054', 'channelDN': '3184', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121024164550271_3_3184_37013.wav', 'startTime': datetime.datetime(2012, 10, 24, 16, 45, 50), 'telNO': '3184', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 24, 16, 46, 20), 'channelNO': 3, 'telDNIS': '13816395399', 'total': None, 'agentID': '37013'}, {'available': 1, 'spendTime': 35, 'filePath': 'E:\\RaRecSound\\2012.10.24\\', 'callID': '12238', 'channelDN': '3198', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121024165122350_17_3198_37003.wav', 'startTime': datetime.datetime(2012, 10, 24, 16, 51, 22), 'telNO': '3198', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 24, 16, 51, 57), 'channelNO': 17, 'telDNIS': '13816395399', 'total': None, 'agentID': '37003'}, {'available': 1, 'spendTime': 13, 'filePath': 'E:\\RaRecSound\\2012.10.24\\', 'callID': '13054', 'channelDN': '3185', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121024171925803_4_3185_37001.wav', 'startTime': datetime.datetime(2012, 10, 24, 17, 19, 25), 'telNO': '3185', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 24, 17, 19, 38), 'channelNO': 4, 'telDNIS': '3198', 'total': None, 'agentID': '37001'}, {'available': 1, 'spendTime': 14, 'filePath': 'E:\\RaRecSound\\2012.10.24\\', 'callID': '13067', 'channelDN': '3198', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121024171957537_17_3198_37003.wav', 'startTime': datetime.datetime(2012, 10, 24, 17, 19, 57), 'telNO': '3198', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 24, 17, 20, 12), 'channelNO': 17, 'telDNIS': '3185', 'total': None, 'agentID': '37003'}, {'available': 1, 'spendTime': 8, 'filePath': 'E:\\RaRecSound\\2012.10.24\\', 'callID': '13085', 'channelDN': '3198', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121024172045100_17_3198_37003.wav', 'startTime': datetime.datetime(2012, 10, 24, 17, 20, 45), 'telNO': '3198', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 24, 17, 20, 53), 'channelNO': 17, 'telDNIS': '3185', 'total': None, 'agentID': '37003'}, {'available': 1, 'spendTime': 12, 'filePath': 'E:\\RaRecSound\\2012.10.26\\', 'callID': '1022', 'channelDN': '3198', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121026150829539_17_3198_37002.wav', 'startTime': datetime.datetime(2012, 10, 26, 15, 8, 29), 'telNO': '3198', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 26, 15, 8, 41), 'channelNO': 17, 'telDNIS': '015075461290', 'total': None, 'agentID': '37002'}, {'available': 1, 'spendTime': 9, 'filePath': 'E:\\RaRecSound\\2012.10.26\\', 'callID': '1387', 'channelDN': '3195', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121026151604914_14_3195_37004.wav', 'startTime': datetime.datetime(2012, 10, 26, 15, 16, 4), 'telNO': '3195', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 26, 15, 16, 14), 'channelNO': 14, 'telDNIS': '015075461290', 'total': None, 'agentID': '37004'}, {'available': 1, 'spendTime': 13, 'filePath': 'E:\\RaRecSound\\2012.10.26\\', 'callID': '1465', 'channelDN': '3186', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121026151750289_5_3186_37001.wav', 'startTime': datetime.datetime(2012, 10, 26, 15, 17, 50), 'telNO': '3186', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 26, 15, 18, 3), 'channelNO': 5, 'telDNIS': '015075461290', 'total': None, 'agentID': '37001'}, {'available': 1, 'spendTime': 10, 'filePath': 'E:\\RaRecSound\\2012.10.26\\', 'callID': '1514', 'channelDN': '3185', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121026151856133_4_3185_37003.wav', 'startTime': datetime.datetime(2012, 10, 26, 15, 18, 56), 'telNO': '3185', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 26, 15, 19, 6), 'channelNO': 4, 'telDNIS': '015075461290', 'total': None, 'agentID': '37003'}, {'available': 1, 'spendTime': 8, 'filePath': 'E:\\RaRecSound\\2012.10.26\\', 'callID': '1588', 'channelDN': '3184', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121026152034851_3_3184_37005.wav', 'startTime': datetime.datetime(2012, 10, 26, 15, 20, 34), 'telNO': '3184', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 26, 15, 20, 42), 'channelNO': 3, 'telDNIS': '015075461290', 'total': None, 'agentID': '37005'}, {'available': 1, 'spendTime': 9, 'filePath': 'E:\\RaRecSound\\2012.10.29\\', 'callID': '8640', 'channelDN': '3184', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121029191321513_3_3184_37003.wav', 'startTime': datetime.datetime(2012, 10, 29, 19, 13, 21), 'telNO': '3184', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 29, 19, 13, 31), 'channelNO': 3, 'telDNIS': '015075461290', 'total': None, 'agentID': '37003'}, {'available': 1, 'spendTime': 21, 'filePath': 'E:\\RaRecSound\\2012.10.30\\', 'callID': '14449', 'channelDN': '3184', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121030111131201_3_3184_37001.wav', 'startTime': datetime.datetime(2012, 10, 30, 11, 11, 31), 'telNO': '3184', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 30, 11, 11, 52), 'channelNO': 3, 'telDNIS': '015075461290', 'total': None, 'agentID': '37001'}, {'available': 1, 'spendTime': 3, 'filePath': 'E:\\RaRecSound\\2012.10.30\\', 'callID': '14762', 'channelDN': '3185', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121030112055310_4_3185_37014.wav', 'startTime': datetime.datetime(2012, 10, 30, 11, 20, 55), 'telNO': '3185', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 30, 11, 20, 59), 'channelNO': 4, 'telDNIS': '3184', 'total': None, 'agentID': '37014'}, {'available': 1, 'spendTime': 6, 'filePath': 'E:\\RaRecSound\\2012.10.30\\', 'callID': '14872', 'channelDN': '3183', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121030112448013_2_3183_37005.wav', 'startTime': datetime.datetime(2012, 10, 30, 11, 24, 48), 'telNO': '3183', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 30, 11, 24, 54), 'channelNO': 2, 'telDNIS': '015075461290', 'total': None, 'agentID': '37005'}, {'available': 1, 'spendTime': 13, 'filePath': 'E:\\RaRecSound\\2012.10.30\\', 'callID': '15365', 'channelDN': '3185', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121030114015310_4_3185_37001.wav', 'startTime': datetime.datetime(2012, 10, 30, 11, 40, 15), 'telNO': '3185', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 30, 11, 40, 29), 'channelNO': 4, 'telDNIS': '13816395399', 'total': None, 'agentID': '37001'}, {'available': 1, 'spendTime': 76, 'filePath': 'E:\\RaRecSound\\2012.10.30\\', 'callID': '147', 'channelDN': '3185', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121030114713841_4_3185_37001.wav', 'startTime': datetime.datetime(2012, 10, 30, 11, 47, 13), 'telNO': '3185', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 30, 11, 48, 30), 'channelNO': 4, 'telDNIS': '13817541150', 'total': None, 'agentID': '37001'}, {'available': 1, 'spendTime': 13, 'filePath': 'E:\\RaRecSound\\2012.10.30\\', 'callID': '318', 'channelDN': '3182', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121030115410920_1_3182_37003.wav', 'startTime': datetime.datetime(2012, 10, 30, 11, 54, 10), 'telNO': '3182', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 30, 11, 54, 24), 'channelNO': 1, 'telDNIS': '015075461290', 'total': None, 'agentID': '37003'}, {'available': 1, 'spendTime': 4, 'filePath': 'E:\\RaRecSound\\2012.10.30\\', 'callID': '574', 'channelDN': '3181', 'hostName': '10.4.48.29', 'fileName': '10.4.48.29_20121030120304248_0_3181_37005.wav', 'startTime': datetime.datetime(2012, 10, 30, 12, 3, 4), 'telNO': '3181', 'callType': 'OUT', 'endTime': datetime.datetime(2012, 10, 30, 12, 3, 8), 'channelNO': 0, 'telDNIS': '015075461290', 'total': None, 'agentID': '37005'}]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/irecorderservice/irecorderlist?calltype=OUT&amp;pageno=1&amp;pagesize=20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,9 +561,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -672,23 +594,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,87 +607,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="NC)P[BLV3E3F0LDHEH)_)1B.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2343150" y="4638675"/>
-          <a:ext cx="12915900" cy="1790700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="11.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2343150" y="8410575"/>
-          <a:ext cx="6581775" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1065,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1076,7 +905,7 @@
     <col min="1" max="1" width="30.75" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="8" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="22.5">
@@ -1098,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -1110,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -1123,35 +952,35 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1180,16 +1009,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1197,27 +1026,27 @@
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1225,10 +1054,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
@@ -1239,10 +1068,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>16</v>
@@ -1250,13 +1079,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
@@ -1267,10 +1096,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>18</v>
@@ -1281,10 +1110,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>23</v>
@@ -1295,10 +1124,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>24</v>
@@ -1309,10 +1138,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>28</v>
@@ -1320,16 +1149,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1337,13 +1166,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1351,10 +1180,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>29</v>
@@ -1365,10 +1194,10 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>31</v>
@@ -1376,16 +1205,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1394,45 +1223,43 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:6" s="19" customFormat="1">
+      <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="B28" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="A31" s="12"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1440,9 +1267,7 @@
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="A32" s="13"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1450,9 +1275,7 @@
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A33" s="13"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1460,9 +1283,7 @@
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A34" s="13"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1470,9 +1291,7 @@
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="13"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1480,150 +1299,113 @@
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="A36" s="13"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A37" s="13"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="A39" s="13"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="A40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="A41" s="14"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="A42" s="14"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="A43" s="14"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="A44" s="14"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="A45" s="14"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="A46" s="14"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="A47" s="14"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="A48" s="14"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="14"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="A53" s="17"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="A58" s="18"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="A59" s="18"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="A60" s="18"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B53:D56"/>
+    <mergeCell ref="B54:D57"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/座席录音资源接口说明文档.xlsx
+++ b/doc/座席录音资源接口说明文档.xlsx
@@ -310,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?startdate=xxx&amp;enddate=xxx&amp;calltype=xxx&amp;agentid=xxx&amp;telno=xxx&amp;available=xxx&amp;totalmin=xxx&amp;totalmax=xxx&amp;channeldn=xxx&amp;teldnis=xxx&amp;pageno=xxx&amp;pagesize=xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +320,10 @@
   </si>
   <si>
     <t>http://localhost:8080/irecorderservice/irecorderlist?calltype=OUT&amp;pageno=1&amp;pagesize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?startdate=xxx&amp;enddate=xxx&amp;calltype=xxx&amp;agentid=xxx&amp;telno=xxx&amp;available=xxx&amp;totalmin=xxx&amp;totalmax=xxx&amp;channeldn=xxx&amp;teldnis=xxx&amp;spendmin=xxx&amp;pageno=xxx&amp;pagesize=xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,7 +561,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -584,21 +587,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,7 +885,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -905,7 +893,7 @@
     <col min="1" max="1" width="30.75" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="8" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="22.5">
@@ -952,28 +940,28 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
@@ -1225,23 +1213,23 @@
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10"/>
@@ -1362,27 +1350,27 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="18"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="18"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="18"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="18"/>

--- a/doc/座席录音资源接口说明文档.xlsx
+++ b/doc/座席录音资源接口说明文档.xlsx
@@ -323,7 +323,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?startdate=xxx&amp;enddate=xxx&amp;calltype=xxx&amp;agentid=xxx&amp;telno=xxx&amp;available=xxx&amp;totalmin=xxx&amp;totalmax=xxx&amp;channeldn=xxx&amp;teldnis=xxx&amp;spendmin=xxx&amp;pageno=xxx&amp;pagesize=xxx</t>
+    <t>?startdate=xxx&amp;enddate=xxx&amp;calltype=xxx&amp;agentid=xxx&amp;telno=xxx&amp;available=xxx&amp;totalmin=xxx&amp;totalmax=xxx&amp;channeldn=xxx&amp;teldnis=xxx&amp;spendmin=xxx&amp;spendmax=xxx&amp;pageno=xxx&amp;pagesize=xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,17 +567,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -885,7 +885,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -940,11 +940,11 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -957,11 +957,11 @@
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
@@ -1350,27 +1350,27 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="18"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="18"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="18"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="18"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="18"/>
